--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -222,10 +222,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -252,8 +260,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -534,526 +543,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A3:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="E3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="E4">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="N11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="N12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="N13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="K18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="K19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="K20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
+      <c r="K21">
         <v>50</v>
       </c>
     </row>

--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Сода пищевая" sheetId="1" r:id="rId1"/>
+    <sheet name="сода пищевая" sheetId="1" r:id="rId1"/>
+    <sheet name="сода каустическая" sheetId="2" r:id="rId2"/>
+    <sheet name="сода кальцинована" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>сода пищевая</t>
   </si>
@@ -216,6 +218,309 @@
   </si>
   <si>
     <t>чайный сода</t>
+  </si>
+  <si>
+    <t>сода каустическая</t>
+  </si>
+  <si>
+    <t>каустическая сода</t>
+  </si>
+  <si>
+    <t>каустическая сода цена</t>
+  </si>
+  <si>
+    <t>каустик</t>
+  </si>
+  <si>
+    <t>каустическая сода цена за 1 кг</t>
+  </si>
+  <si>
+    <t>едкий натр</t>
+  </si>
+  <si>
+    <t>в каких магазинах продается каустическая сода</t>
+  </si>
+  <si>
+    <t>гидроксид натрия где используется</t>
+  </si>
+  <si>
+    <t>гидроксид натрия гост 2263 79</t>
+  </si>
+  <si>
+    <t>гидроксид натрия каустическая сода</t>
+  </si>
+  <si>
+    <t>гидроксид натрия сода каустическая</t>
+  </si>
+  <si>
+    <t>гидроксид натрия цена</t>
+  </si>
+  <si>
+    <t>гидроксид соды</t>
+  </si>
+  <si>
+    <t>дезинфекция каустической содой</t>
+  </si>
+  <si>
+    <t>едкий каустик</t>
+  </si>
+  <si>
+    <t>едкий натр для прочистки труб</t>
+  </si>
+  <si>
+    <t>едкий натр каустик</t>
+  </si>
+  <si>
+    <t>едкий натр каустическая сода</t>
+  </si>
+  <si>
+    <t>едкий натр цена</t>
+  </si>
+  <si>
+    <t>жидкая каустическая сода</t>
+  </si>
+  <si>
+    <t>каустик для прочистки труб</t>
+  </si>
+  <si>
+    <t>каустик для чистки канализации</t>
+  </si>
+  <si>
+    <t>каустик едкий</t>
+  </si>
+  <si>
+    <t>каустик цена</t>
+  </si>
+  <si>
+    <t>каустическая</t>
+  </si>
+  <si>
+    <t>каустическая сода 25 кг цена</t>
+  </si>
+  <si>
+    <t>каустическая сода в выгребной яме</t>
+  </si>
+  <si>
+    <t>каустическая сода в канализацию</t>
+  </si>
+  <si>
+    <t>каустическая сода в септик</t>
+  </si>
+  <si>
+    <t>каустическая сода в септик помогает ли</t>
+  </si>
+  <si>
+    <t>каустическая сода в сливную яму</t>
+  </si>
+  <si>
+    <t>каустическая сода в унитаз</t>
+  </si>
+  <si>
+    <t>каустическая сода где применяется</t>
+  </si>
+  <si>
+    <t>каустическая сода где продается</t>
+  </si>
+  <si>
+    <t>каустическая сода гост</t>
+  </si>
+  <si>
+    <t>каустическая сода для выгребной ямы</t>
+  </si>
+  <si>
+    <t>каустическая сода для выгребных ям</t>
+  </si>
+  <si>
+    <t>каустическая сода для дезинфекции</t>
+  </si>
+  <si>
+    <t>каустическая сода для канализации</t>
+  </si>
+  <si>
+    <t>каустическая сода для мыла</t>
+  </si>
+  <si>
+    <t>каустическая сода для мыловарения</t>
+  </si>
+  <si>
+    <t>каустическая сода для мытья посуды</t>
+  </si>
+  <si>
+    <t>каустическая сода для очистки выгребных ям</t>
+  </si>
+  <si>
+    <t>каустическая сода для пластиковых труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для прочистки канализации</t>
+  </si>
+  <si>
+    <t>каустическая сода для прочистки канализационных труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для прочистки труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для септика</t>
+  </si>
+  <si>
+    <t>каустическая сода для стирки</t>
+  </si>
+  <si>
+    <t>каустическая сода для труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для унитаза</t>
+  </si>
+  <si>
+    <t>каустическая сода для чего</t>
+  </si>
+  <si>
+    <t>каустическая сода для чего используется</t>
+  </si>
+  <si>
+    <t>каустическая сода для чего применяется</t>
+  </si>
+  <si>
+    <t>каустическая сода для чистки пластиковых труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для чистки труб</t>
+  </si>
+  <si>
+    <t>каустическая сода для чистки унитаза</t>
+  </si>
+  <si>
+    <t>каустическая сода едкий натр</t>
+  </si>
+  <si>
+    <t>каустическая сода жидкая</t>
+  </si>
+  <si>
+    <t>каустическая сода производство</t>
+  </si>
+  <si>
+    <t>каустическая сода прочистка труб</t>
+  </si>
+  <si>
+    <t>каустическая сода цена за тонну</t>
+  </si>
+  <si>
+    <t>каустическая сода чистка канализации</t>
+  </si>
+  <si>
+    <t>каустическая сода чистка труб</t>
+  </si>
+  <si>
+    <t>каустической содой</t>
+  </si>
+  <si>
+    <t>каучуковая сода</t>
+  </si>
+  <si>
+    <t>куплю каустическую соду</t>
+  </si>
+  <si>
+    <t>мойка каустической содой</t>
+  </si>
+  <si>
+    <t>натр едкий</t>
+  </si>
+  <si>
+    <t>натр едкий гост 2263 79</t>
+  </si>
+  <si>
+    <t>натр едкий технический</t>
+  </si>
+  <si>
+    <t>натрий гидроксид</t>
+  </si>
+  <si>
+    <t>натрий гидроксид натрия</t>
+  </si>
+  <si>
+    <t>натрий едкий</t>
+  </si>
+  <si>
+    <t>натрий едкий технический</t>
+  </si>
+  <si>
+    <t>натрий едкий цена</t>
+  </si>
+  <si>
+    <t>очистка выгребной ямы каустической содой</t>
+  </si>
+  <si>
+    <t>очистка септика каустической содой</t>
+  </si>
+  <si>
+    <t>очистка сливной ямы каустической содой</t>
+  </si>
+  <si>
+    <t>производство каустической соды</t>
+  </si>
+  <si>
+    <t>прочистка канализации каустической содой</t>
+  </si>
+  <si>
+    <t>прочистка труб каустической содой</t>
+  </si>
+  <si>
+    <t>сода для выгребных ям</t>
+  </si>
+  <si>
+    <t>сода каустическая 25 кг</t>
+  </si>
+  <si>
+    <t>сода каустическая гост</t>
+  </si>
+  <si>
+    <t>сода каустическая гост 2263 79</t>
+  </si>
+  <si>
+    <t>сода каустическая для канализации</t>
+  </si>
+  <si>
+    <t>сода каустическая для чего</t>
+  </si>
+  <si>
+    <t>сода каустическая жидкая</t>
+  </si>
+  <si>
+    <t>сода каустическая натр едкий</t>
+  </si>
+  <si>
+    <t>сода каустическая техническая</t>
+  </si>
+  <si>
+    <t>сода каустическая цена</t>
+  </si>
+  <si>
+    <t>срок годности каустической соды</t>
+  </si>
+  <si>
+    <t>стоимость каустической соды</t>
+  </si>
+  <si>
+    <t>технический едкий натр</t>
+  </si>
+  <si>
+    <t>цена каустической соды</t>
+  </si>
+  <si>
+    <t>чистка канализации каустической содой</t>
+  </si>
+  <si>
+    <t>чистка сливной ямы каустической содой</t>
+  </si>
+  <si>
+    <t>чистка труб каустической содой</t>
+  </si>
+  <si>
+    <t>сода кальцинована</t>
+  </si>
+  <si>
+    <t>кальцинована сода</t>
   </si>
 </sst>
 </file>
@@ -545,15 +850,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
@@ -837,6 +1142,12 @@
       <c r="E12">
         <v>50</v>
       </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
       <c r="J12" t="s">
         <v>50</v>
       </c>
@@ -857,6 +1168,12 @@
       <c r="E13">
         <v>50</v>
       </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
@@ -917,12 +1234,6 @@
       <c r="E16">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
@@ -941,12 +1252,6 @@
         <v>61</v>
       </c>
       <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17">
         <v>50</v>
       </c>
       <c r="J17" t="s">
@@ -994,4 +1299,775 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:P53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="O17" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>116</v>
+      </c>
+      <c r="P31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>140</v>
+      </c>
+      <c r="P41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>141</v>
+      </c>
+      <c r="P42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>142</v>
+      </c>
+      <c r="P43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>143</v>
+      </c>
+      <c r="P44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>144</v>
+      </c>
+      <c r="P45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>145</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>146</v>
+      </c>
+      <c r="P47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>160</v>
+      </c>
+      <c r="P50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>161</v>
+      </c>
+      <c r="P51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>162</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>156</v>
+      </c>
+      <c r="P53">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:B140">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="сода пищевая" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="196">
   <si>
     <t>сода пищевая</t>
   </si>
@@ -521,13 +521,106 @@
   </si>
   <si>
     <t>кальцинована сода</t>
+  </si>
+  <si>
+    <t>Бикарбонат натрия (сода пищевая)</t>
+  </si>
+  <si>
+    <t>Сода в пачках</t>
+  </si>
+  <si>
+    <t>Е 500</t>
+  </si>
+  <si>
+    <t>Питьевая сода</t>
+  </si>
+  <si>
+    <t>питна сода</t>
+  </si>
+  <si>
+    <t>двовуглекисла сода</t>
+  </si>
+  <si>
+    <t>двоокис соди</t>
+  </si>
+  <si>
+    <t>гост 2156 76 натрий двууглекислый мешки 25кг</t>
+  </si>
+  <si>
+    <t>натрій двовуглекислий</t>
+  </si>
+  <si>
+    <t>сода для випічки</t>
+  </si>
+  <si>
+    <t>розпушувач</t>
+  </si>
+  <si>
+    <t>гидрокарбонат натрия</t>
+  </si>
+  <si>
+    <t>гідрокарбонат натрію</t>
+  </si>
+  <si>
+    <t>NaHCO3</t>
+  </si>
+  <si>
+    <t>разрыхлитель мяса</t>
+  </si>
+  <si>
+    <t>разрыхлитель</t>
+  </si>
+  <si>
+    <t>харчова сода</t>
+  </si>
+  <si>
+    <t>содова</t>
+  </si>
+  <si>
+    <t>хлебная сода</t>
+  </si>
+  <si>
+    <t>бикарбонат натрия как буферное вещество в кормах</t>
+  </si>
+  <si>
+    <t>буферное вещество в кормах</t>
+  </si>
+  <si>
+    <t>буферное вещество в корма</t>
+  </si>
+  <si>
+    <t>минус слова</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>H1:</t>
+  </si>
+  <si>
+    <t>поваренная соль</t>
+  </si>
+  <si>
+    <t>соль техническая,</t>
+  </si>
+  <si>
+    <t>каменная поваренная соль</t>
+  </si>
+  <si>
+    <t>каменная соль техническая,</t>
+  </si>
+  <si>
+    <t>Пищевая поваренная сода (натрий двууглекислый)</t>
+  </si>
+  <si>
+    <t>Пищевая поваренная обычная сода (бикарбонат натрия)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +632,38 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -565,9 +690,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -848,17 +990,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N21"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
@@ -869,435 +1011,778 @@
     <col min="12" max="12" width="3.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="J3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>5000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>500</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="N3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>500</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
         <v>10</v>
       </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="N8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
       </c>
-      <c r="N9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
         <v>33</v>
       </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
         <v>34</v>
       </c>
-      <c r="N11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="Q12" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
         <v>35</v>
       </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c r="K13">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
         <v>36</v>
       </c>
-      <c r="N13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
         <v>55</v>
       </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
         <v>52</v>
       </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
         <v>47</v>
       </c>
-      <c r="N14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="N15">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
         <v>56</v>
       </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
         <v>53</v>
       </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="N15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
         <v>58</v>
       </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
         <v>39</v>
       </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
         <v>60</v>
       </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
         <v>61</v>
       </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
         <v>42</v>
       </c>
-      <c r="K19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>43</v>
       </c>
-      <c r="K20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
         <v>57</v>
       </c>
-      <c r="K21">
-        <v>50</v>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B81">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2042,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="сода пищевая" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="288">
   <si>
     <t>сода пищевая</t>
   </si>
@@ -418,9 +418,6 @@
     <t>каучуковая сода</t>
   </si>
   <si>
-    <t>куплю каустическую соду</t>
-  </si>
-  <si>
     <t>мойка каустической содой</t>
   </si>
   <si>
@@ -493,21 +490,12 @@
     <t>сода каустическая техническая</t>
   </si>
   <si>
-    <t>сода каустическая цена</t>
-  </si>
-  <si>
     <t>срок годности каустической соды</t>
   </si>
   <si>
-    <t>стоимость каустической соды</t>
-  </si>
-  <si>
     <t>технический едкий натр</t>
   </si>
   <si>
-    <t>цена каустической соды</t>
-  </si>
-  <si>
     <t>чистка канализации каустической содой</t>
   </si>
   <si>
@@ -614,13 +602,301 @@
   </si>
   <si>
     <t>Пищевая поваренная обычная сода (бикарбонат натрия)</t>
+  </si>
+  <si>
+    <t>Едкий натр (каустическая сода)</t>
+  </si>
+  <si>
+    <t>Натрий гидроксид (сода каустическая)</t>
+  </si>
+  <si>
+    <t>гидроксид натрия</t>
+  </si>
+  <si>
+    <t>натрий едкий по низким</t>
+  </si>
+  <si>
+    <t>щелочь</t>
+  </si>
+  <si>
+    <t>щелочь для мыловарения</t>
+  </si>
+  <si>
+    <t>едкая щелочь</t>
+  </si>
+  <si>
+    <t>едкий натрий</t>
+  </si>
+  <si>
+    <t>Едкий натр сода каустическая</t>
+  </si>
+  <si>
+    <t>очистка труб</t>
+  </si>
+  <si>
+    <t>очистка засоров</t>
+  </si>
+  <si>
+    <t>очистка канализации</t>
+  </si>
+  <si>
+    <t>гидроксида натрия</t>
+  </si>
+  <si>
+    <t>едкая щёлочь</t>
+  </si>
+  <si>
+    <t>кальцинированная и каустическая сода</t>
+  </si>
+  <si>
+    <t>сода каустическая чешуированная</t>
+  </si>
+  <si>
+    <t>чешуированная каустическая сода</t>
+  </si>
+  <si>
+    <t>каустической соды</t>
+  </si>
+  <si>
+    <t>гидроксид натрий</t>
+  </si>
+  <si>
+    <t>щёлочь</t>
+  </si>
+  <si>
+    <t>каустическая сода щелочь</t>
+  </si>
+  <si>
+    <t>Гидрооксид натрия Щелочь NaOH</t>
+  </si>
+  <si>
+    <t>каустик сода</t>
+  </si>
+  <si>
+    <t>натриевая щелочь</t>
+  </si>
+  <si>
+    <t>гидроксид натрия щелочь</t>
+  </si>
+  <si>
+    <t>соду каустическую</t>
+  </si>
+  <si>
+    <t>каустик гранула</t>
+  </si>
+  <si>
+    <t>щелочь для мыловарения с нуля</t>
+  </si>
+  <si>
+    <t>каустик чешуя</t>
+  </si>
+  <si>
+    <t>Каустик чешуйка</t>
+  </si>
+  <si>
+    <t>Гидрооксид натрия</t>
+  </si>
+  <si>
+    <t>натрия гидрооксид</t>
+  </si>
+  <si>
+    <t>Каустическая сода (каустик, едкий натр)</t>
+  </si>
+  <si>
+    <t>Сода каустическая (каустик, натрий гидроксид)</t>
+  </si>
+  <si>
+    <t>кальцинированная сода</t>
+  </si>
+  <si>
+    <t>кальцинированную соду</t>
+  </si>
+  <si>
+    <t>кальцинированная сода где</t>
+  </si>
+  <si>
+    <t>Карбонат натрия</t>
+  </si>
+  <si>
+    <t>натрий углекислый</t>
+  </si>
+  <si>
+    <t>безводный карбонат натрия</t>
+  </si>
+  <si>
+    <t>кальцуха</t>
+  </si>
+  <si>
+    <t>карбонат натрію</t>
+  </si>
+  <si>
+    <t>стиральная сода</t>
+  </si>
+  <si>
+    <t>Средство для чистки плит и духовок</t>
+  </si>
+  <si>
+    <t>сода кальцинированная</t>
+  </si>
+  <si>
+    <t>соду кальцинированную</t>
+  </si>
+  <si>
+    <t>сода кальцинированная техническая</t>
+  </si>
+  <si>
+    <t>сода кальцинированная марка А</t>
+  </si>
+  <si>
+    <t>кальцинированная сода марка А</t>
+  </si>
+  <si>
+    <t>Сода кальцинированная марки А</t>
+  </si>
+  <si>
+    <t>кальцинированная сода марки А</t>
+  </si>
+  <si>
+    <t>сода техническая</t>
+  </si>
+  <si>
+    <t>сода стиральная</t>
+  </si>
+  <si>
+    <t>Сода кальцинированная мешки</t>
+  </si>
+  <si>
+    <t>сода кальцинированная в пачках</t>
+  </si>
+  <si>
+    <t>бельевая сода</t>
+  </si>
+  <si>
+    <t>жидкое стекло и кальцинированная сода</t>
+  </si>
+  <si>
+    <t>кальциевая сода</t>
+  </si>
+  <si>
+    <t>кальцинированная</t>
+  </si>
+  <si>
+    <t>кальцинированная сода в быту</t>
+  </si>
+  <si>
+    <t>кальцинированная сода где можно купить</t>
+  </si>
+  <si>
+    <t>кальцинированная сода где продается</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для дезинфекции</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для мытья посуды</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для обработки яиц</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для посудомоечной машины</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для посуды</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для стирки</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для стирки цветных вещей</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для уборки</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для унитаза</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для чего</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для чего нужна</t>
+  </si>
+  <si>
+    <t>кальцинированная сода для чистки ванны</t>
+  </si>
+  <si>
+    <t>кальцинированная сода опасна для здоровья</t>
+  </si>
+  <si>
+    <t>кальцинированная сода производство</t>
+  </si>
+  <si>
+    <t>карбонат сода</t>
+  </si>
+  <si>
+    <t>мытье посуды кальцинированной содой</t>
+  </si>
+  <si>
+    <t>обработка яиц кальцинированной содой</t>
+  </si>
+  <si>
+    <t>перкарбонат натрия и кальцинированная сода</t>
+  </si>
+  <si>
+    <t>производство кальцинированной соды</t>
+  </si>
+  <si>
+    <t>производство соды</t>
+  </si>
+  <si>
+    <t>производство соды в мире</t>
+  </si>
+  <si>
+    <t>промышленная сода</t>
+  </si>
+  <si>
+    <t>сода кальцинированная 25 кг</t>
+  </si>
+  <si>
+    <t>сода кальцинированная гост</t>
+  </si>
+  <si>
+    <t>сода кальцинированная гост 5100 85</t>
+  </si>
+  <si>
+    <t>сода кальцинированная гранулированная</t>
+  </si>
+  <si>
+    <t>сода кальцинированная для стирки</t>
+  </si>
+  <si>
+    <t>сода кальцинированная для чего</t>
+  </si>
+  <si>
+    <t>сода кальцинированная марки а</t>
+  </si>
+  <si>
+    <t>сода кальцинированная техническая гост 5100 85</t>
+  </si>
+  <si>
+    <t>таблица разведения кальцинированной соды</t>
+  </si>
+  <si>
+    <t>техническая сода</t>
+  </si>
+  <si>
+    <t>чистка ванны кальцинированной содой</t>
+  </si>
+  <si>
+    <t>Кальцинированная сода промышленная</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +945,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -690,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -710,6 +994,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -992,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,14 +1308,14 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -1031,17 +1323,17 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,10 +1341,10 @@
       <c r="B3" s="2"/>
       <c r="G3" s="5"/>
       <c r="J3" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1566,27 +1858,27 @@
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="Q29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="Q31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="17:17" x14ac:dyDescent="0.25">
@@ -1596,87 +1888,87 @@
     </row>
     <row r="35" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q38" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q51" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="17:17" x14ac:dyDescent="0.25">
@@ -1788,771 +2080,1618 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:P53"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" customWidth="1"/>
-    <col min="15" max="15" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="11"/>
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11"/>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
         <v>5000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>500</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>84</v>
       </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
         <v>83</v>
       </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>500</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="T14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+      <c r="T15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="T16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17">
+        <v>50</v>
+      </c>
+      <c r="T17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+      <c r="T18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>135</v>
       </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-      <c r="I4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22">
+        <v>50</v>
+      </c>
+      <c r="T22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+      <c r="T23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
         <v>152</v>
       </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="P25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25">
+        <v>50</v>
+      </c>
+      <c r="T25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="P26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26">
+        <v>50</v>
+      </c>
+      <c r="T26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27">
+        <v>50</v>
+      </c>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+      <c r="T28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="T29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+      <c r="T30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q31">
+        <v>50</v>
+      </c>
+      <c r="T31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+      <c r="T32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q33">
+        <v>50</v>
+      </c>
+      <c r="T33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34">
+        <v>50</v>
+      </c>
+      <c r="T34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+      <c r="T35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+      <c r="T36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="T37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+      <c r="T38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39">
+        <v>50</v>
+      </c>
+      <c r="T39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q40">
+        <v>50</v>
+      </c>
+      <c r="T40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q41">
+        <v>50</v>
+      </c>
+      <c r="T41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="T42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+      <c r="T43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="T44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q45">
+        <v>50</v>
+      </c>
+      <c r="T45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+      <c r="T46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+      <c r="T47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q48">
+        <v>50</v>
+      </c>
+      <c r="T48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>50</v>
+      </c>
+      <c r="T49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+      <c r="T50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51">
+        <v>50</v>
+      </c>
+      <c r="T51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="T52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q53">
+        <v>50</v>
+      </c>
+      <c r="T53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q54">
+        <v>50</v>
+      </c>
+      <c r="T54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
         <v>90</v>
       </c>
-      <c r="P5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
+    </row>
+    <row r="59" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
         <v>100</v>
       </c>
-      <c r="P15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="O16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="O17" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="O18" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="O19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="O20" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="O21" t="s">
+    </row>
+    <row r="61" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T63" t="s">
         <v>106</v>
       </c>
-      <c r="P21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="O22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="O23" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="O24" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="O25" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O27" t="s">
-        <v>112</v>
-      </c>
-      <c r="P27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O29" t="s">
-        <v>114</v>
-      </c>
-      <c r="P29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O30" t="s">
-        <v>115</v>
-      </c>
-      <c r="P30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O34" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O35" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
-        <v>124</v>
-      </c>
-      <c r="P37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O38" t="s">
-        <v>126</v>
-      </c>
-      <c r="P38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O39" t="s">
-        <v>127</v>
-      </c>
-      <c r="P39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O40" t="s">
-        <v>131</v>
-      </c>
-      <c r="P40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O41" t="s">
-        <v>140</v>
-      </c>
-      <c r="P41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O42" t="s">
-        <v>141</v>
-      </c>
-      <c r="P42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O43" t="s">
-        <v>142</v>
-      </c>
-      <c r="P43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O44" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O45" t="s">
-        <v>144</v>
-      </c>
-      <c r="P45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O46" t="s">
-        <v>145</v>
-      </c>
-      <c r="P46">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O47" t="s">
-        <v>146</v>
-      </c>
-      <c r="P47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O48" t="s">
-        <v>150</v>
-      </c>
-      <c r="P48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O49" t="s">
-        <v>151</v>
-      </c>
-      <c r="P49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O50" t="s">
-        <v>160</v>
-      </c>
-      <c r="P50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O51" t="s">
-        <v>161</v>
-      </c>
-      <c r="P51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O52" t="s">
-        <v>162</v>
-      </c>
-      <c r="P52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O53" t="s">
-        <v>156</v>
-      </c>
-      <c r="P53">
-        <v>50</v>
+    </row>
+    <row r="64" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B140">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="A3:C140">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B5"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="11"/>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11"/>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="P5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
+      <c r="P6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>256</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>261</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>262</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>263</v>
+      </c>
+      <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>264</v>
+      </c>
+      <c r="N21">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>265</v>
+      </c>
+      <c r="N22">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N23">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>267</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="P25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="P26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>269</v>
+      </c>
+      <c r="N27">
+        <v>50</v>
+      </c>
+      <c r="P27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="P28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>271</v>
+      </c>
+      <c r="N29">
+        <v>50</v>
+      </c>
+      <c r="P29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>272</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="P30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="P31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>274</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="P32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>277</v>
+      </c>
+      <c r="N33">
+        <v>50</v>
+      </c>
+      <c r="P33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>278</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+      <c r="P34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>280</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>281</v>
+      </c>
+      <c r="N36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>284</v>
+      </c>
+      <c r="N37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>286</v>
+      </c>
+      <c r="N38">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/сода.xlsx
+++ b/Фриланс/Projects/atena.com.ua/сода.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="сода пищевая" sheetId="1" r:id="rId1"/>
@@ -3141,7 +3141,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
